--- a/Регион.xlsx
+++ b/Регион.xlsx
@@ -136,28 +136,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -181,251 +185,251 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="0" t="s">
+      <c r="K1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>319</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5" t="n">
+      <c r="E2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="n">
         <v>45846</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <f aca="false">AVERAGEIF(E2:E19, 1, C2:C19)</f>
         <v>346</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="1" t="n">
         <f aca="false">AVERAGE(D2:D19)</f>
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
+      <c r="E3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <v>719</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="6" t="n">
         <v>45847</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>319</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>361</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5" t="n">
+      <c r="D4" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6" t="n">
         <v>45853</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>2019</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>2019</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>2020</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>2020</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="B13" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>2024</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>2024</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>2025</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>2025</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
+      <c r="A22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Регион.xlsx
+++ b/Регион.xlsx
@@ -185,7 +185,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -243,7 +243,7 @@
       </c>
       <c r="K2" s="1" t="n">
         <f aca="false">AVERAGEIF(E2:E19, 1, C2:C19)</f>
-        <v>346</v>
+        <v>334.5</v>
       </c>
       <c r="L2" s="1" t="n">
         <f aca="false">AVERAGE(D2:D19)</f>
@@ -299,6 +299,15 @@
       </c>
       <c r="B5" s="5" t="n">
         <v>2</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>619</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Регион.xlsx
+++ b/Регион.xlsx
@@ -185,7 +185,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -247,7 +247,7 @@
       </c>
       <c r="L2" s="1" t="n">
         <f aca="false">AVERAGE(D2:D19)</f>
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -269,6 +269,9 @@
       <c r="F3" s="1" t="n">
         <v>719</v>
       </c>
+      <c r="G3" s="0" t="n">
+        <v>740</v>
+      </c>
       <c r="H3" s="6" t="n">
         <v>45847</v>
       </c>
@@ -300,14 +303,20 @@
       <c r="B5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="D5" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>619</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Регион.xlsx
+++ b/Регион.xlsx
@@ -190,7 +190,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -252,7 +252,7 @@
       </c>
       <c r="L2" s="7" t="n">
         <f aca="false">AVERAGE(D2:D19)</f>
-        <v>335.727272727273</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -473,6 +473,15 @@
       <c r="B16" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="C16" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>245</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
@@ -480,6 +489,21 @@
       </c>
       <c r="B17" s="5" t="n">
         <v>2</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>391</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>545</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Регион.xlsx
+++ b/Регион.xlsx
@@ -190,7 +190,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -252,7 +252,7 @@
       </c>
       <c r="L2" s="7" t="n">
         <f aca="false">AVERAGE(D2:D19)</f>
-        <v>326</v>
+        <v>340.153846153846</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -373,13 +373,13 @@
       <c r="B8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -398,13 +398,13 @@
       <c r="B10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>216</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="D10" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="E10" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -415,19 +415,19 @@
       <c r="B11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="n">
         <v>568</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>568</v>
       </c>
     </row>
@@ -473,13 +473,13 @@
       <c r="B16" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -490,19 +490,19 @@
       <c r="B17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="E17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="0" t="n">
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="1" t="n">
         <v>545</v>
       </c>
     </row>
@@ -513,10 +513,10 @@
       <c r="B18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>281</v>
       </c>
     </row>
@@ -527,19 +527,19 @@
       <c r="B19" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>353</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="0" t="n">
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="n">
         <v>601</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <v>634</v>
       </c>
     </row>

--- a/Регион.xlsx
+++ b/Регион.xlsx
@@ -190,7 +190,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -252,7 +252,7 @@
       </c>
       <c r="L2" s="7" t="n">
         <f aca="false">AVERAGE(D2:D19)</f>
-        <v>340.153846153846</v>
+        <v>347.076923076923</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -354,7 +354,7 @@
         <v>283</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>283</v>
+        <v>373</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>0</v>
@@ -366,7 +366,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>2020</v>
       </c>
@@ -381,6 +381,9 @@
       </c>
       <c r="E8" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>45860</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -428,7 +431,7 @@
         <v>568</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>568</v>
+        <v>752</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -518,6 +521,9 @@
       </c>
       <c r="D18" s="1" t="n">
         <v>281</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Регион.xlsx
+++ b/Регион.xlsx
@@ -190,7 +190,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -252,7 +252,7 @@
       </c>
       <c r="L2" s="7" t="n">
         <f aca="false">AVERAGE(D2:D19)</f>
-        <v>347.076923076923</v>
+        <v>351.846153846154</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -324,7 +324,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>2019</v>
       </c>
@@ -336,7 +336,7 @@
         <v>243</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>338</v>
+        <v>400</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0</v>

--- a/Регион.xlsx
+++ b/Регион.xlsx
@@ -190,7 +190,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -252,7 +252,7 @@
       </c>
       <c r="L2" s="7" t="n">
         <f aca="false">AVERAGE(D2:D19)</f>
-        <v>360.923076923077</v>
+        <v>372.846153846154</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -480,7 +480,7 @@
         <v>217</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>245</v>
+        <v>400</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>0</v>

--- a/Регион.xlsx
+++ b/Регион.xlsx
@@ -246,16 +246,16 @@
       <c r="H2" s="6" t="n">
         <v>45846</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="7" t="n">
         <f aca="false">AVERAGEIF(E2:E19, 1, C2:C19)</f>
-        <v>333.6</v>
+        <v>336.833333333333</v>
       </c>
       <c r="L2" s="7" t="n">
         <f aca="false">AVERAGE(D2:D19)</f>
-        <v>372.846153846154</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>374.785714285714</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2017</v>
       </c>
@@ -271,10 +271,12 @@
       <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="0" t="n">
+        <f aca="false">C2+C3</f>
         <v>719</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="0" t="n">
+        <f aca="false">D2+D3</f>
         <v>740</v>
       </c>
       <c r="H3" s="6" t="n">
@@ -301,7 +303,7 @@
         <v>45853</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>2018</v>
       </c>
@@ -317,11 +319,16 @@
       <c r="E5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="0" t="n">
+        <f aca="false">C4+C5</f>
         <v>619</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="0" t="n">
+        <f aca="false">D4+D5</f>
         <v>800</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>45859</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -342,7 +349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>2019</v>
       </c>
@@ -359,11 +366,13 @@
       <c r="E7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="0" t="n">
+        <f aca="false">C6+C7</f>
         <v>526</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <v>621</v>
+      <c r="G7" s="0" t="n">
+        <f aca="false">D6+D7</f>
+        <v>773</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -386,12 +395,32 @@
         <v>45860</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>2</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>353</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">C8+C9</f>
+        <v>683</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">D8+D9</f>
+        <v>800</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>45875</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,7 +440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>2021</v>
       </c>
@@ -427,11 +456,13 @@
       <c r="E11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="0" t="n">
+        <f aca="false">C10+C11</f>
         <v>568</v>
       </c>
-      <c r="G11" s="1" t="n">
-        <v>752</v>
+      <c r="G11" s="0" t="n">
+        <f aca="false">D10+D11</f>
+        <v>800</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,7 +517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>2024</v>
       </c>
@@ -502,11 +533,13 @@
       <c r="E17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="0" t="n">
+        <f aca="false">C16+C17</f>
         <v>391</v>
       </c>
-      <c r="G17" s="1" t="n">
-        <v>545</v>
+      <c r="G17" s="0" t="n">
+        <f aca="false">D16+D17</f>
+        <v>700</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,7 +559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>2025</v>
       </c>
@@ -542,10 +575,12 @@
       <c r="E19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="0" t="n">
+        <f aca="false">C18+C19</f>
         <v>601</v>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="G19" s="0" t="n">
+        <f aca="false">D18+D19</f>
         <v>634</v>
       </c>
     </row>

--- a/Регион.xlsx
+++ b/Регион.xlsx
@@ -190,7 +190,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -248,11 +248,11 @@
       </c>
       <c r="K2" s="7" t="n">
         <f aca="false">AVERAGEIF(E2:E19, 1, C2:C19)</f>
-        <v>336.833333333333</v>
+        <v>340.428571428571</v>
       </c>
       <c r="L2" s="7" t="n">
         <f aca="false">AVERAGE(D2:D19)</f>
-        <v>374.785714285714</v>
+        <v>376.466666666667</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -271,11 +271,11 @@
       <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <f aca="false">C2+C3</f>
         <v>719</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <f aca="false">D2+D3</f>
         <v>740</v>
       </c>
@@ -319,11 +319,11 @@
       <c r="E5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <f aca="false">C4+C5</f>
         <v>619</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <f aca="false">D4+D5</f>
         <v>800</v>
       </c>
@@ -366,11 +366,11 @@
       <c r="E7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <f aca="false">C6+C7</f>
         <v>526</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <f aca="false">D6+D7</f>
         <v>773</v>
       </c>
@@ -402,20 +402,20 @@
       <c r="B9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>353</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="n">
+      <c r="D9" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="n">
         <f aca="false">C8+C9</f>
         <v>683</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <f aca="false">D8+D9</f>
         <v>800</v>
       </c>
@@ -456,11 +456,11 @@
       <c r="E11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <f aca="false">C10+C11</f>
         <v>568</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <f aca="false">D10+D11</f>
         <v>800</v>
       </c>
@@ -472,6 +472,15 @@
       <c r="B12" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="C12" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
@@ -533,11 +542,11 @@
       <c r="E17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <f aca="false">C16+C17</f>
         <v>391</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="1" t="n">
         <f aca="false">D16+D17</f>
         <v>700</v>
       </c>
@@ -575,11 +584,11 @@
       <c r="E19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <f aca="false">C18+C19</f>
         <v>601</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <f aca="false">D18+D19</f>
         <v>634</v>
       </c>

--- a/Регион.xlsx
+++ b/Регион.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A039F1-5005-4B32-9185-F9FE7AEF3A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517F54B1-1E2E-4697-917E-2BB2886AFA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,6 +727,9 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
+      <c r="H12" s="6">
+        <v>45876</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">

--- a/Регион.xlsx
+++ b/Регион.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517F54B1-1E2E-4697-917E-2BB2886AFA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D51FB2C-A567-495C-954E-CD5EC67AED45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,11 +494,11 @@
       </c>
       <c r="K2" s="7">
         <f>AVERAGEIF(E2:E19, 1, C2:C19)</f>
-        <v>340.42857142857144</v>
+        <v>336.625</v>
       </c>
       <c r="L2" s="7">
         <f>AVERAGE(D2:D19)</f>
-        <v>376.46666666666664</v>
+        <v>372.3125</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -738,15 +738,25 @@
       <c r="B13" s="5">
         <v>2</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1">
+        <v>310</v>
+      </c>
+      <c r="D13" s="1">
+        <v>310</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
       <c r="F13" s="1">
         <f>C12+C13</f>
-        <v>362</v>
+        <v>672</v>
       </c>
       <c r="G13" s="1">
         <f>D12+D13</f>
-        <v>400</v>
+        <v>710</v>
+      </c>
+      <c r="H13" s="6">
+        <v>45877</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
